--- a/exports/Reports.xlsx
+++ b/exports/Reports.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Pyetja</t>
   </si>
@@ -25,29 +25,44 @@
     <t>Totali</t>
   </si>
   <si>
-    <t>Në 3 muajt e fundit, keni pasur takime ose keni shkëmbyer informata (p.sh. dokumente, raporte, të dhëna) me organizata tjera që punojnë në çështje të ngjashme që veprojnë brenda Kosovës me:</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>Asnjë</t>
-  </si>
-  <si>
-    <t>Më shumë se 10</t>
+    <t>Cilat dokumente/informata janë publike në faqen tuaj të internetit?</t>
+  </si>
+  <si>
+    <t>Aktivitetet kryesore</t>
+  </si>
+  <si>
+    <t>Anëtarët e Kuvendit/Bordit</t>
+  </si>
+  <si>
+    <t>Dokumentet e brendshme</t>
+  </si>
+  <si>
+    <t>Donatorët</t>
+  </si>
+  <si>
+    <t>Emrat e stafit</t>
+  </si>
+  <si>
+    <t>Fushat e punës</t>
+  </si>
+  <si>
+    <t>Misioni i organizatës</t>
+  </si>
+  <si>
+    <t>Projektet</t>
+  </si>
+  <si>
+    <t>Raportet Financiare</t>
+  </si>
+  <si>
+    <t>Raportet Narrative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,7 +72,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -84,9 +106,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,67 +410,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
+      <c r="B12" s="4">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/exports/Reports.xlsx
+++ b/exports/Reports.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Pyetja</t>
   </si>
@@ -25,37 +25,16 @@
     <t>Totali</t>
   </si>
   <si>
-    <t>Cilat dokumente/informata janë publike në faqen tuaj të internetit?</t>
-  </si>
-  <si>
-    <t>Aktivitetet kryesore</t>
-  </si>
-  <si>
-    <t>Anëtarët e Kuvendit/Bordit</t>
-  </si>
-  <si>
-    <t>Dokumentet e brendshme</t>
-  </si>
-  <si>
-    <t>Donatorët</t>
-  </si>
-  <si>
-    <t>Emrat e stafit</t>
-  </si>
-  <si>
-    <t>Fushat e punës</t>
-  </si>
-  <si>
-    <t>Misioni i organizatës</t>
-  </si>
-  <si>
-    <t>Projektet</t>
-  </si>
-  <si>
-    <t>Raportet Financiare</t>
-  </si>
-  <si>
-    <t>Raportet Narrative</t>
+    <t>Si do ta vlerësonit përzgjedhjen e çështjeve për t’u trajtuar nga organizatat e shoqërisë civile në kuadër të aktiviteteve të tyre?</t>
+  </si>
+  <si>
+    <t>Të bazuara në analizën e brengave të grupeve që i përfaqësojnë</t>
+  </si>
+  <si>
+    <t>Të bazuara në fondet në dispozicion</t>
+  </si>
+  <si>
+    <t>Të bazuara në kontaktet e drejtpërdrejta me grupet që i përfaqësojnë</t>
   </si>
 </sst>
 </file>
@@ -410,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -446,7 +425,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -454,63 +433,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
